--- a/Input/NLGI_Easy_Health/rateSheet.xlsx
+++ b/Input/NLGI_Easy_Health/rateSheet.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3469" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3469" uniqueCount="28">
   <si>
     <t xml:space="preserve">planName</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t xml:space="preserve">NLG Chrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dependents</t>
   </si>
 </sst>
 </file>
@@ -221,8 +224,8 @@
   </sheetPr>
   <dimension ref="A1:M433"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A429" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B290" activeCellId="0" sqref="B290:B433"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J304" activeCellId="0" sqref="J304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11618,7 +11621,7 @@
         <v>16</v>
       </c>
       <c r="I302" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L302" s="0" t="s">
         <v>18</v>
@@ -11653,7 +11656,7 @@
         <v>16</v>
       </c>
       <c r="I303" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L303" s="0" t="s">
         <v>18</v>
@@ -11688,7 +11691,7 @@
         <v>16</v>
       </c>
       <c r="I304" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L304" s="0" t="s">
         <v>18</v>
@@ -11723,7 +11726,7 @@
         <v>16</v>
       </c>
       <c r="I305" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L305" s="0" t="s">
         <v>18</v>
@@ -11758,7 +11761,7 @@
         <v>16</v>
       </c>
       <c r="I306" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L306" s="0" t="s">
         <v>18</v>
@@ -11793,7 +11796,7 @@
         <v>16</v>
       </c>
       <c r="I307" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L307" s="0" t="s">
         <v>18</v>
@@ -11828,7 +11831,7 @@
         <v>16</v>
       </c>
       <c r="I308" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L308" s="0" t="s">
         <v>18</v>
@@ -11863,7 +11866,7 @@
         <v>16</v>
       </c>
       <c r="I309" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L309" s="0" t="s">
         <v>18</v>
@@ -11898,7 +11901,7 @@
         <v>16</v>
       </c>
       <c r="I310" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L310" s="0" t="s">
         <v>18</v>
@@ -11933,7 +11936,7 @@
         <v>16</v>
       </c>
       <c r="I311" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L311" s="0" t="s">
         <v>18</v>
@@ -11968,7 +11971,7 @@
         <v>16</v>
       </c>
       <c r="I312" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L312" s="0" t="s">
         <v>18</v>
@@ -12003,7 +12006,7 @@
         <v>16</v>
       </c>
       <c r="I313" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L313" s="0" t="s">
         <v>18</v>
@@ -12494,7 +12497,7 @@
         <v>16</v>
       </c>
       <c r="I326" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J326" s="0" t="n">
         <v>1</v>
@@ -12532,7 +12535,7 @@
         <v>16</v>
       </c>
       <c r="I327" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J327" s="0" t="n">
         <v>1</v>
@@ -12570,7 +12573,7 @@
         <v>16</v>
       </c>
       <c r="I328" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J328" s="0" t="n">
         <v>1</v>
@@ -12608,7 +12611,7 @@
         <v>16</v>
       </c>
       <c r="I329" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J329" s="0" t="n">
         <v>1</v>
@@ -12646,7 +12649,7 @@
         <v>16</v>
       </c>
       <c r="I330" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J330" s="0" t="n">
         <v>1</v>
@@ -12684,7 +12687,7 @@
         <v>16</v>
       </c>
       <c r="I331" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J331" s="0" t="n">
         <v>1</v>
@@ -12722,7 +12725,7 @@
         <v>16</v>
       </c>
       <c r="I332" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J332" s="0" t="n">
         <v>1</v>
@@ -12760,7 +12763,7 @@
         <v>16</v>
       </c>
       <c r="I333" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J333" s="0" t="n">
         <v>1</v>
@@ -12798,7 +12801,7 @@
         <v>16</v>
       </c>
       <c r="I334" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J334" s="0" t="n">
         <v>1</v>
@@ -12836,7 +12839,7 @@
         <v>16</v>
       </c>
       <c r="I335" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J335" s="0" t="n">
         <v>1</v>
@@ -12874,7 +12877,7 @@
         <v>16</v>
       </c>
       <c r="I336" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J336" s="0" t="n">
         <v>1</v>
@@ -12912,7 +12915,7 @@
         <v>16</v>
       </c>
       <c r="I337" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J337" s="0" t="n">
         <v>1</v>
@@ -13436,7 +13439,7 @@
         <v>16</v>
       </c>
       <c r="I350" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J350" s="0" t="n">
         <v>0</v>
@@ -13474,7 +13477,7 @@
         <v>16</v>
       </c>
       <c r="I351" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J351" s="0" t="n">
         <v>0</v>
@@ -13512,7 +13515,7 @@
         <v>16</v>
       </c>
       <c r="I352" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J352" s="0" t="n">
         <v>0</v>
@@ -13553,7 +13556,7 @@
         <v>16</v>
       </c>
       <c r="I353" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J353" s="0" t="n">
         <v>0</v>
@@ -13594,7 +13597,7 @@
         <v>16</v>
       </c>
       <c r="I354" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J354" s="0" t="n">
         <v>0</v>
@@ -13635,7 +13638,7 @@
         <v>16</v>
       </c>
       <c r="I355" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J355" s="0" t="n">
         <v>0</v>
@@ -13676,7 +13679,7 @@
         <v>16</v>
       </c>
       <c r="I356" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J356" s="0" t="n">
         <v>0</v>
@@ -13717,7 +13720,7 @@
         <v>16</v>
       </c>
       <c r="I357" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J357" s="0" t="n">
         <v>0</v>
@@ -13758,7 +13761,7 @@
         <v>16</v>
       </c>
       <c r="I358" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J358" s="0" t="n">
         <v>0</v>
@@ -13799,7 +13802,7 @@
         <v>16</v>
       </c>
       <c r="I359" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J359" s="0" t="n">
         <v>0</v>
@@ -13840,7 +13843,7 @@
         <v>16</v>
       </c>
       <c r="I360" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J360" s="0" t="n">
         <v>0</v>
@@ -13881,7 +13884,7 @@
         <v>16</v>
       </c>
       <c r="I361" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J361" s="0" t="n">
         <v>0</v>
@@ -14342,7 +14345,7 @@
         <v>16</v>
       </c>
       <c r="I374" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L374" s="0" t="s">
         <v>18</v>
@@ -14377,7 +14380,7 @@
         <v>16</v>
       </c>
       <c r="I375" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L375" s="0" t="s">
         <v>18</v>
@@ -14412,7 +14415,7 @@
         <v>16</v>
       </c>
       <c r="I376" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L376" s="0" t="s">
         <v>18</v>
@@ -14447,7 +14450,7 @@
         <v>16</v>
       </c>
       <c r="I377" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L377" s="0" t="s">
         <v>18</v>
@@ -14482,7 +14485,7 @@
         <v>16</v>
       </c>
       <c r="I378" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L378" s="0" t="s">
         <v>18</v>
@@ -14517,7 +14520,7 @@
         <v>16</v>
       </c>
       <c r="I379" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L379" s="0" t="s">
         <v>18</v>
@@ -14552,7 +14555,7 @@
         <v>16</v>
       </c>
       <c r="I380" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L380" s="0" t="s">
         <v>18</v>
@@ -14587,7 +14590,7 @@
         <v>16</v>
       </c>
       <c r="I381" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L381" s="0" t="s">
         <v>18</v>
@@ -14622,7 +14625,7 @@
         <v>16</v>
       </c>
       <c r="I382" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L382" s="0" t="s">
         <v>18</v>
@@ -14657,7 +14660,7 @@
         <v>16</v>
       </c>
       <c r="I383" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L383" s="0" t="s">
         <v>18</v>
@@ -14692,7 +14695,7 @@
         <v>16</v>
       </c>
       <c r="I384" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L384" s="0" t="s">
         <v>18</v>
@@ -14727,7 +14730,7 @@
         <v>16</v>
       </c>
       <c r="I385" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L385" s="0" t="s">
         <v>18</v>
@@ -15218,7 +15221,7 @@
         <v>16</v>
       </c>
       <c r="I398" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J398" s="0" t="n">
         <v>1</v>
@@ -15256,7 +15259,7 @@
         <v>16</v>
       </c>
       <c r="I399" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J399" s="0" t="n">
         <v>1</v>
@@ -15294,7 +15297,7 @@
         <v>16</v>
       </c>
       <c r="I400" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J400" s="0" t="n">
         <v>1</v>
@@ -15332,7 +15335,7 @@
         <v>16</v>
       </c>
       <c r="I401" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J401" s="0" t="n">
         <v>1</v>
@@ -15370,7 +15373,7 @@
         <v>16</v>
       </c>
       <c r="I402" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J402" s="0" t="n">
         <v>1</v>
@@ -15408,7 +15411,7 @@
         <v>16</v>
       </c>
       <c r="I403" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J403" s="0" t="n">
         <v>1</v>
@@ -15446,7 +15449,7 @@
         <v>16</v>
       </c>
       <c r="I404" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J404" s="0" t="n">
         <v>1</v>
@@ -15484,7 +15487,7 @@
         <v>16</v>
       </c>
       <c r="I405" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J405" s="0" t="n">
         <v>1</v>
@@ -15522,7 +15525,7 @@
         <v>16</v>
       </c>
       <c r="I406" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J406" s="0" t="n">
         <v>1</v>
@@ -15560,7 +15563,7 @@
         <v>16</v>
       </c>
       <c r="I407" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J407" s="0" t="n">
         <v>1</v>
@@ -15598,7 +15601,7 @@
         <v>16</v>
       </c>
       <c r="I408" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J408" s="0" t="n">
         <v>1</v>
@@ -15636,7 +15639,7 @@
         <v>16</v>
       </c>
       <c r="I409" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J409" s="0" t="n">
         <v>1</v>
@@ -16160,7 +16163,7 @@
         <v>16</v>
       </c>
       <c r="I422" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J422" s="0" t="n">
         <v>0</v>
@@ -16198,7 +16201,7 @@
         <v>16</v>
       </c>
       <c r="I423" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J423" s="0" t="n">
         <v>0</v>
@@ -16236,7 +16239,7 @@
         <v>16</v>
       </c>
       <c r="I424" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J424" s="0" t="n">
         <v>0</v>
@@ -16277,7 +16280,7 @@
         <v>16</v>
       </c>
       <c r="I425" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J425" s="0" t="n">
         <v>0</v>
@@ -16318,7 +16321,7 @@
         <v>16</v>
       </c>
       <c r="I426" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J426" s="0" t="n">
         <v>0</v>
@@ -16359,7 +16362,7 @@
         <v>16</v>
       </c>
       <c r="I427" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J427" s="0" t="n">
         <v>0</v>
@@ -16400,7 +16403,7 @@
         <v>16</v>
       </c>
       <c r="I428" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J428" s="0" t="n">
         <v>0</v>
@@ -16441,7 +16444,7 @@
         <v>16</v>
       </c>
       <c r="I429" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J429" s="0" t="n">
         <v>0</v>
@@ -16482,7 +16485,7 @@
         <v>16</v>
       </c>
       <c r="I430" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J430" s="0" t="n">
         <v>0</v>
@@ -16523,7 +16526,7 @@
         <v>16</v>
       </c>
       <c r="I431" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J431" s="0" t="n">
         <v>0</v>
@@ -16564,7 +16567,7 @@
         <v>16</v>
       </c>
       <c r="I432" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J432" s="0" t="n">
         <v>0</v>
@@ -16605,7 +16608,7 @@
         <v>16</v>
       </c>
       <c r="I433" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J433" s="0" t="n">
         <v>0</v>
@@ -16624,7 +16627,7 @@
   <autoFilter ref="A1:M433">
     <filterColumn colId="1">
       <customFilters and="true">
-        <customFilter operator="equal" val="NLG Chrome "/>
+        <customFilter operator="equal" val="NLG Chrome"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
